--- a/_sotadata_to_textile.xlsx
+++ b/_sotadata_to_textile.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="25120" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>Time</t>
   </si>
@@ -36,145 +36,217 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>19:59z</t>
-  </si>
-  <si>
-    <t>W0MNA</t>
-  </si>
-  <si>
-    <t>14MHz</t>
-  </si>
-  <si>
     <t>SSB</t>
   </si>
   <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>20:08z</t>
-  </si>
-  <si>
     <t>NS7P</t>
   </si>
   <si>
-    <t>Phil in OR</t>
-  </si>
-  <si>
-    <t>20:10z</t>
-  </si>
-  <si>
-    <t>K4PIC</t>
-  </si>
-  <si>
-    <t>Larry in GA</t>
-  </si>
-  <si>
-    <t>20:22z</t>
-  </si>
-  <si>
-    <t>KI4SVM</t>
-  </si>
-  <si>
-    <t>Pat in SC</t>
-  </si>
-  <si>
-    <t>20:27z</t>
-  </si>
-  <si>
-    <t>WW2DX</t>
-  </si>
-  <si>
-    <t>Lee in NY</t>
-  </si>
-  <si>
-    <t>20:31z</t>
-  </si>
-  <si>
-    <t>W4RK</t>
-  </si>
-  <si>
-    <t>Bill in MO</t>
-  </si>
-  <si>
-    <t>20:39z</t>
-  </si>
-  <si>
-    <t>K1MAZ</t>
-  </si>
-  <si>
-    <t>Nick in MA</t>
-  </si>
-  <si>
-    <t>20:45z</t>
-  </si>
-  <si>
-    <t>7MHz</t>
-  </si>
-  <si>
-    <t>20:49z</t>
-  </si>
-  <si>
-    <t>K1MAX</t>
-  </si>
-  <si>
-    <t>20:50z</t>
-  </si>
-  <si>
-    <t>KB1RJD</t>
-  </si>
-  <si>
-    <t>Maude in NH</t>
-  </si>
-  <si>
-    <t>20:51z</t>
-  </si>
-  <si>
-    <t>KB1RJC</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>20:53z</t>
-  </si>
-  <si>
-    <t>N1EU</t>
-  </si>
-  <si>
-    <t>Barry in NY</t>
-  </si>
-  <si>
-    <t>KB3CVO</t>
-  </si>
-  <si>
-    <t>Tom in PA</t>
-  </si>
-  <si>
-    <t>20:56z</t>
-  </si>
-  <si>
-    <t>N4EX</t>
-  </si>
-  <si>
-    <t>Rich in NC</t>
-  </si>
-  <si>
-    <t>20:59z</t>
-  </si>
-  <si>
-    <t>W1DQD</t>
-  </si>
-  <si>
-    <t>Phil in MA</t>
-  </si>
-  <si>
-    <t>21:00z</t>
-  </si>
-  <si>
-    <t>VA2SG</t>
-  </si>
-  <si>
-    <t>QC</t>
+    <t>15:34z</t>
+  </si>
+  <si>
+    <t>OH7CW</t>
+  </si>
+  <si>
+    <t>28MHz</t>
+  </si>
+  <si>
+    <t>5W</t>
+  </si>
+  <si>
+    <t>16:00z</t>
+  </si>
+  <si>
+    <t>IZ8CGS</t>
+  </si>
+  <si>
+    <t>25W</t>
+  </si>
+  <si>
+    <t>16:07z</t>
+  </si>
+  <si>
+    <t>W0FD</t>
+  </si>
+  <si>
+    <t>Mike in CO, 25W</t>
+  </si>
+  <si>
+    <t>16:15z</t>
+  </si>
+  <si>
+    <t>IK5CBE</t>
+  </si>
+  <si>
+    <t>Beppe in Italy, 25W</t>
+  </si>
+  <si>
+    <t>16:38z</t>
+  </si>
+  <si>
+    <t>SP7HKK</t>
+  </si>
+  <si>
+    <t>Voy in Poland, 25W</t>
+  </si>
+  <si>
+    <t>16:49z</t>
+  </si>
+  <si>
+    <t>K7GED</t>
+  </si>
+  <si>
+    <t>Idaho State, 5W</t>
+  </si>
+  <si>
+    <t>16:53z</t>
+  </si>
+  <si>
+    <t>WN0ARD</t>
+  </si>
+  <si>
+    <t>Virgil in CO, 5W</t>
+  </si>
+  <si>
+    <t>17:10z</t>
+  </si>
+  <si>
+    <t>I1YDT</t>
+  </si>
+  <si>
+    <t>17:13z</t>
+  </si>
+  <si>
+    <t>WG0AT</t>
+  </si>
+  <si>
+    <t>Steve in CO, 5W</t>
+  </si>
+  <si>
+    <t>17:15z</t>
+  </si>
+  <si>
+    <t>K0REQ</t>
+  </si>
+  <si>
+    <t>Roy, 5W</t>
+  </si>
+  <si>
+    <t>17:35z</t>
+  </si>
+  <si>
+    <t>K5PBA</t>
+  </si>
+  <si>
+    <t>21MHz</t>
+  </si>
+  <si>
+    <t>TX QSO Party, op David</t>
+  </si>
+  <si>
+    <t>17:37z</t>
+  </si>
+  <si>
+    <t>WN5TL</t>
+  </si>
+  <si>
+    <t>17:42z</t>
+  </si>
+  <si>
+    <t>AJ5C</t>
+  </si>
+  <si>
+    <t>Bob in AR</t>
+  </si>
+  <si>
+    <t>17:45z</t>
+  </si>
+  <si>
+    <t>G4ELZ</t>
+  </si>
+  <si>
+    <t>17:46z</t>
+  </si>
+  <si>
+    <t>K0LAF</t>
+  </si>
+  <si>
+    <t>17:48z</t>
+  </si>
+  <si>
+    <t>M0BKV</t>
+  </si>
+  <si>
+    <t>Damien, 25W</t>
+  </si>
+  <si>
+    <t>17:49z</t>
+  </si>
+  <si>
+    <t>G0RQL</t>
+  </si>
+  <si>
+    <t>Don, 25W</t>
+  </si>
+  <si>
+    <t>17:54z</t>
+  </si>
+  <si>
+    <t>OM1AX</t>
+  </si>
+  <si>
+    <t>17:55z</t>
+  </si>
+  <si>
+    <t>KY7K</t>
+  </si>
+  <si>
+    <t>17:56z</t>
+  </si>
+  <si>
+    <t>G0TRB</t>
+  </si>
+  <si>
+    <t>17:59z</t>
+  </si>
+  <si>
+    <t>N7KN</t>
+  </si>
+  <si>
+    <t>18:04z</t>
+  </si>
+  <si>
+    <t>WY0Q</t>
+  </si>
+  <si>
+    <t>Missouri, 25W</t>
+  </si>
+  <si>
+    <t>18:05z</t>
+  </si>
+  <si>
+    <t>18:22z</t>
+  </si>
+  <si>
+    <t>KB1VFG</t>
+  </si>
+  <si>
+    <t>144MHz</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Jim in Watertown, CT, 10W</t>
+  </si>
+  <si>
+    <t>18:25z</t>
+  </si>
+  <si>
+    <t>N2FVB</t>
+  </si>
+  <si>
+    <t>Ralph mobile near I-84 and I-684 in NY</t>
   </si>
 </sst>
 </file>
@@ -187,19 +259,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,6 +276,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,29 +306,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -588,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F1" sqref="F1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -613,344 +681,531 @@
         <v>4</v>
       </c>
       <c r="F1" t="str">
-        <f>CONCATENATE("|._",A1,"|._",B1,"|._",C1,"|._",D1,"|._",E1,"|")</f>
-        <v>|._Time|._Call|._Band|._Mode|._Notes|</v>
+        <f>CONCATENATE("|_.",A1,"|_.",B1,"|_.",C1,"|_.",D1,"|_.",E1,"|")</f>
+        <v>|_.Time|_.Call|_.Band|_.Mode|_.Notes|</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F17" si="0">CONCATENATE("|",A2,"|",B2,"|",C2,"|",D2,"|",E2,"|")</f>
-        <v>|19:59z|W0MNA|14MHz|SSB|KS|</v>
+        <f t="shared" ref="F2:F26" si="0">CONCATENATE("|",A2,"|",B2,"|",C2,"|",D2,"|",E2,"|")</f>
+        <v>|15:34z|OH7CW|28MHz|SSB|5W|</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>|20:08z|NS7P|14MHz|SSB|Phil in OR|</v>
+        <v>|16:00z|IZ8CGS|28MHz|SSB|25W|</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>|20:10z|K4PIC|14MHz|SSB|Larry in GA|</v>
+        <v>|16:07z|W0FD|28MHz|SSB|Mike in CO, 25W|</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>|20:22z|KI4SVM|14MHz|SSB|Pat in SC|</v>
+        <v>|16:15z|IK5CBE|28MHz|SSB|Beppe in Italy, 25W|</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>|20:27z|WW2DX|14MHz|SSB|Lee in NY|</v>
+        <v>|16:38z|SP7HKK|28MHz|SSB|Voy in Poland, 25W|</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>|20:31z|W4RK|14MHz|SSB|Bill in MO|</v>
+        <v>|16:49z|K7GED|28MHz|SSB|Idaho State, 5W|</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>|20:39z|K1MAZ|14MHz|SSB|Nick in MA|</v>
+        <v>|16:53z|WN0ARD|28MHz|SSB|Virgil in CO, 5W|</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>|20:45z|WW2DX|7MHz|SSB|Lee in NY|</v>
+        <v>|17:10z|I1YDT|28MHz|SSB|5W|</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>|20:49z|K1MAX|7MHz|SSB|Nick in MA|</v>
+        <v>|17:13z|WG0AT|28MHz|SSB|Steve in CO, 5W|</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>|20:50z|KB1RJD|7MHz|SSB|Maude in NH|</v>
+        <v>|17:15z|K0REQ|28MHz|SSB|Roy, 5W|</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>|20:51z|KB1RJC|7MHz|SSB|NH|</v>
+        <v>|17:35z|K5PBA|21MHz|SSB|TX QSO Party, op David|</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>|20:53z|N1EU|7MHz|SSB|Barry in NY|</v>
+        <v>|17:37z|WN5TL|21MHz|SSB|5W|</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>|20:53z|KB3CVO|7MHz|SSB|Tom in PA|</v>
+        <v>|17:42z|AJ5C|21MHz|SSB|Bob in AR|</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>|20:56z|N4EX|7MHz|SSB|Rich in NC|</v>
+        <v>|17:45z|G4ELZ|21MHz|SSB||</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>|20:59z|W1DQD|7MHz|SSB|Phil in MA|</v>
+        <v>|17:46z|K0LAF|21MHz|SSB|5W|</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>|21:00z|VA2SG|7MHz|SSB|QC|</v>
+        <v>|17:48z|M0BKV|21MHz|SSB|Damien, 25W|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>|17:49z|G0RQL|21MHz|SSB|Don, 25W|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>|17:54z|OM1AX|21MHz|SSB|25W|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>|17:55z|KY7K|21MHz|SSB|25W|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>|17:56z|G0TRB|21MHz|SSB|25W|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>|17:59z|N7KN|21MHz|SSB|25W|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>|18:04z|WY0Q|21MHz|SSB|Missouri, 25W|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>|18:05z|NS7P|21MHz|SSB|25W|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>|18:22z|KB1VFG|144MHz|FM|Jim in Watertown, CT, 10W|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>|18:25z|N2FVB|144MHz|FM|Ralph mobile near I-84 and I-684 in NY|</v>
       </c>
     </row>
   </sheetData>
